--- a/donefiles/test.xlsx
+++ b/donefiles/test.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -359,12 +359,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">	数据工程师</t>
+          <t>数据工程师</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">	算法工程师</t>
+          <t>算法工程师</t>
         </is>
       </c>
       <c r="D1" t="n">
@@ -377,12 +377,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">	数据挖掘工程师</t>
+          <t>数据挖掘工程师</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">	数据挖掘</t>
+          <t>数据挖掘</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -395,12 +395,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">	大数据开发工程师</t>
+          <t>大数据开发工程师</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">	算法工程师</t>
+          <t>算法工程师</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -413,12 +413,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">	机器学习工程师</t>
+          <t>机器学习工程师</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">	算法工程师</t>
+          <t>算法工程师</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -431,34 +431,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">	数据科学家</t>
+          <t>数据科学家</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">	数据挖掘</t>
+          <t>数据挖掘</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>44</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">		</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">		</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/donefiles/test.xlsx
+++ b/donefiles/test.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -357,18 +357,10 @@
       <c r="A1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>数据工程师</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>算法工程师</t>
-        </is>
-      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
       <c r="D1" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
@@ -377,16 +369,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>数据挖掘工程师</t>
+          <t>数据工程师</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>数据挖掘</t>
+          <t>算法工程师</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -395,16 +387,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>大数据开发工程师</t>
+          <t>数据挖掘工程师</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>算法工程师</t>
+          <t>数据挖掘</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +405,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>机器学习工程师</t>
+          <t>大数据开发工程师</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -422,7 +414,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -431,16 +423,44 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>机器学习工程师</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>算法工程师</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>数据科学家</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>数据挖掘</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
